--- a/data/metaculus_shor_rsa_median.xlsx
+++ b/data/metaculus_shor_rsa_median.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,14 @@
         <v>48994</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>45991</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>48994</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/metaculus_shor_rsa_median.xlsx
+++ b/data/metaculus_shor_rsa_median.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,6 +452,14 @@
         <v>48994</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>45998</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>48994</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/metaculus_shor_rsa_median.xlsx
+++ b/data/metaculus_shor_rsa_median.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,14 @@
         <v>48994</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>46005</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>48848</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/metaculus_shor_rsa_median.xlsx
+++ b/data/metaculus_shor_rsa_median.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,6 +468,14 @@
         <v>48848</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>46012</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>48848</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/metaculus_shor_rsa_median.xlsx
+++ b/data/metaculus_shor_rsa_median.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,14 @@
         <v>48848</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>46019</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>48848</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/metaculus_shor_rsa_median.xlsx
+++ b/data/metaculus_shor_rsa_median.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,14 @@
         <v>48848</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>48848</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/metaculus_shor_rsa_median.xlsx
+++ b/data/metaculus_shor_rsa_median.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,6 +492,14 @@
         <v>48848</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>46033</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>48994</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/metaculus_shor_rsa_median.xlsx
+++ b/data/metaculus_shor_rsa_median.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,6 +500,14 @@
         <v>48994</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>46040</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>48994</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/metaculus_shor_rsa_median.xlsx
+++ b/data/metaculus_shor_rsa_median.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,6 +508,14 @@
         <v>48994</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>46047</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>48994</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
